--- a/teaching/traditional_assets/database/data/israel/israel_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0311</v>
+        <v>0.0394</v>
       </c>
       <c r="E2">
-        <v>0.0185</v>
+        <v>0.114</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="L2">
-        <v>0.08203677510608202</v>
+        <v>0.08794788273615635</v>
       </c>
       <c r="M2">
-        <v>0.575</v>
+        <v>0.399</v>
       </c>
       <c r="N2">
-        <v>0.007920110192837466</v>
+        <v>0.005683760683760684</v>
       </c>
       <c r="O2">
-        <v>0.04956896551724137</v>
+        <v>0.02955555555555556</v>
       </c>
       <c r="P2">
-        <v>0.575</v>
+        <v>0.399</v>
       </c>
       <c r="Q2">
-        <v>0.007920110192837466</v>
+        <v>0.005683760683760684</v>
       </c>
       <c r="R2">
-        <v>0.04956896551724137</v>
+        <v>0.02955555555555556</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>666.9</v>
+        <v>827.2</v>
       </c>
       <c r="V2">
-        <v>9.185950413223141</v>
+        <v>11.78347578347578</v>
       </c>
       <c r="W2">
-        <v>0.07281858129315756</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="X2">
-        <v>0.1974345653195698</v>
+        <v>0.2238681304565773</v>
       </c>
       <c r="Y2">
-        <v>-0.1246159840264123</v>
+        <v>-0.1478117924284083</v>
       </c>
       <c r="Z2">
-        <v>1.091049382716049</v>
+        <v>5.185810810810807</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04725238625631234</v>
+        <v>0.04171459907877991</v>
       </c>
       <c r="AC2">
-        <v>-0.04725238625631234</v>
+        <v>-0.04171459907877991</v>
       </c>
       <c r="AD2">
-        <v>519</v>
+        <v>577.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>519</v>
+        <v>577.5</v>
       </c>
       <c r="AG2">
-        <v>-147.9</v>
+        <v>-249.7</v>
       </c>
       <c r="AH2">
-        <v>0.8772819472616632</v>
+        <v>0.8916164891153311</v>
       </c>
       <c r="AI2">
-        <v>0.7068918550803596</v>
+        <v>0.7120838471023427</v>
       </c>
       <c r="AJ2">
-        <v>1.964143426294821</v>
+        <v>1.39108635097493</v>
       </c>
       <c r="AK2">
-        <v>-2.197622585438335</v>
+        <v>15.41358024691354</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0311</v>
+        <v>0.0394</v>
       </c>
       <c r="E3">
-        <v>0.0185</v>
+        <v>0.114</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="L3">
-        <v>0.08203677510608202</v>
+        <v>0.08794788273615635</v>
       </c>
       <c r="M3">
-        <v>0.575</v>
+        <v>0.399</v>
       </c>
       <c r="N3">
-        <v>0.007920110192837466</v>
+        <v>0.005683760683760684</v>
       </c>
       <c r="O3">
-        <v>0.04956896551724137</v>
+        <v>0.02955555555555556</v>
       </c>
       <c r="P3">
-        <v>0.575</v>
+        <v>0.399</v>
       </c>
       <c r="Q3">
-        <v>0.007920110192837466</v>
+        <v>0.005683760683760684</v>
       </c>
       <c r="R3">
-        <v>0.04956896551724137</v>
+        <v>0.02955555555555556</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>666.9</v>
+        <v>827.2</v>
       </c>
       <c r="V3">
-        <v>9.185950413223141</v>
+        <v>11.78347578347578</v>
       </c>
       <c r="W3">
-        <v>0.07281858129315756</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="X3">
-        <v>0.1974345653195698</v>
+        <v>0.2238681304565773</v>
       </c>
       <c r="Y3">
-        <v>-0.1246159840264123</v>
+        <v>-0.1478117924284083</v>
       </c>
       <c r="Z3">
-        <v>1.091049382716049</v>
+        <v>5.185810810810807</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04725238625631234</v>
+        <v>0.04171459907877991</v>
       </c>
       <c r="AC3">
-        <v>-0.04725238625631234</v>
+        <v>-0.04171459907877991</v>
       </c>
       <c r="AD3">
-        <v>519</v>
+        <v>577.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>519</v>
+        <v>577.5</v>
       </c>
       <c r="AG3">
-        <v>-147.9</v>
+        <v>-249.7</v>
       </c>
       <c r="AH3">
-        <v>0.8772819472616632</v>
+        <v>0.8916164891153311</v>
       </c>
       <c r="AI3">
-        <v>0.7068918550803596</v>
+        <v>0.7120838471023427</v>
       </c>
       <c r="AJ3">
-        <v>1.964143426294821</v>
+        <v>1.39108635097493</v>
       </c>
       <c r="AK3">
-        <v>-2.197622585438335</v>
+        <v>15.41358024691354</v>
       </c>
       <c r="AL3">
         <v>0</v>
